--- a/wksp_grnd/res/LOG Protocolos Aterrado MMI.xlsx
+++ b/wksp_grnd/res/LOG Protocolos Aterrado MMI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07d9230a41b251c3/SNN4008/MMI/Protocolos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1BBC5-CE76-481D-AB21-C560499B4926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4442" documentId="13_ncr:1_{095B5DD9-3015-4ACE-B820-830FCF92CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80DA7F8F-8ABB-4AF5-84A8-48431B8C03E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{463E4E2F-D962-4E0A-9EE6-7CC27A6861E4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CableList'!$A$1:$E$1</definedName>
     <definedName name="Amarillado">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CableList'!$A$1:$E$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CableList'!$A$1:$E$27</definedName>
     <definedName name="Compajinando">#REF!</definedName>
     <definedName name="Entregado_a_Calidad">#REF!</definedName>
     <definedName name="Firmado_Jefe_Terreno">#REF!</definedName>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>N° Tag</t>
   </si>
@@ -206,18 +206,57 @@
     <t>Listo</t>
   </si>
   <si>
-    <t>aw</t>
-  </si>
-  <si>
     <t>Columna1</t>
   </si>
   <si>
+    <t>Malla Madre</t>
+  </si>
+  <si>
+    <t>Paño J10</t>
+  </si>
+  <si>
+    <t>Paño J11</t>
+  </si>
+  <si>
+    <t>Paño J13</t>
+  </si>
+  <si>
+    <t>Paño J14</t>
+  </si>
+  <si>
+    <t>Paño J15</t>
+  </si>
+  <si>
+    <t>Paño J16</t>
+  </si>
+  <si>
+    <t>Paño J17</t>
+  </si>
+  <si>
+    <t>Paño J18</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
     <t>012</t>
   </si>
   <si>
+    <t>Futuro</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Caminos Interiores</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Cerco Acmafor</t>
+  </si>
+  <si>
     <t>PRJ7-1/3</t>
   </si>
   <si>
@@ -227,40 +266,94 @@
     <t>PRJ7-1/1</t>
   </si>
   <si>
+    <t>PRJ7-2/2</t>
+  </si>
+  <si>
+    <t>89J7-3</t>
+  </si>
+  <si>
     <t>89J7-2</t>
   </si>
   <si>
     <t>89J7-1</t>
   </si>
   <si>
-    <t>TPJ7-1/2</t>
-  </si>
-  <si>
-    <t>TPJ7-2</t>
-  </si>
-  <si>
-    <t>TPJ7-1/1</t>
-  </si>
-  <si>
-    <t>TPJ7-1/3</t>
-  </si>
-  <si>
-    <t>52J7</t>
-  </si>
-  <si>
-    <t>APJ7</t>
-  </si>
-  <si>
-    <t>89J7-3T</t>
-  </si>
-  <si>
-    <t>PJ7</t>
-  </si>
-  <si>
-    <t>Malla Madre J7</t>
-  </si>
-  <si>
-    <t>013</t>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Paño J09-J12</t>
+  </si>
+  <si>
+    <t>Paño J07</t>
+  </si>
+  <si>
+    <t>Paño J08</t>
+  </si>
+  <si>
+    <t>Impreso</t>
+  </si>
+  <si>
+    <t>Sala SSGG</t>
+  </si>
+  <si>
+    <t>Sala 3</t>
+  </si>
+  <si>
+    <t>Sala 4</t>
+  </si>
+  <si>
+    <t>Sala 5</t>
+  </si>
+  <si>
+    <t>Sala 6</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>ssgg</t>
+  </si>
+  <si>
+    <t>sjd3</t>
+  </si>
+  <si>
+    <t>sjd4</t>
+  </si>
+  <si>
+    <t>sjd5</t>
+  </si>
+  <si>
+    <t>sjd6</t>
   </si>
 </sst>
 </file>
@@ -813,7 +906,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,9 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1051,15 +1141,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67627830-AFA2-4BEB-8153-19C8E16E875E}" name="CableList" displayName="CableList" ref="A1:L14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L14" xr:uid="{67627830-AFA2-4BEB-8153-19C8E16E875E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67627830-AFA2-4BEB-8153-19C8E16E875E}" name="CableList" displayName="CableList" ref="A1:L27" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L27" xr:uid="{67627830-AFA2-4BEB-8153-19C8E16E875E}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4030BB5D-043D-4CCF-84BC-B1512CC6A31F}" name="N° Tag" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B77A0342-600A-42B4-993A-72A704766BFB}" name="Equipo" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{E6A56E78-00C9-4B1A-BAB0-BAB262D40680}" name="Correlativo" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{E5EFF4FB-D385-4060-A06A-F6B83A029AD8}" name="Sector" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{B528A1CF-116C-4D09-8D8F-D097C8CE5F82}" name="Generado" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{75E9D463-A1E2-4A1E-BB3E-83C1B0302FBE}" name="aw" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{75E9D463-A1E2-4A1E-BB3E-83C1B0302FBE}" name="Impreso" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{8B1DAB08-8290-4FF1-9C40-364F5417F5DA}" name="Amarillado" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{56E776F5-DC8C-464F-8BF5-79169873D485}" name="Firma Supervisor" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{A77A1C88-7B0C-4961-8FF1-7DC3AE89F354}" name="Firma Jefe Terreno" dataDxfId="3"/>
@@ -1370,26 +1460,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
@@ -1410,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>37</v>
@@ -1428,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1436,15 +1526,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="10" t="b">
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
@@ -1455,16 +1550,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1479,16 +1578,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1503,16 +1606,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1527,16 +1634,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1551,16 +1662,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1575,16 +1690,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1599,16 +1718,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1623,16 +1746,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1646,16 +1773,21 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>56</v>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="14" t="b">
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
@@ -1665,16 +1797,21 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>54</v>
+      <c r="B12" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="10" t="b">
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
@@ -1685,15 +1822,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="10" t="b">
         <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
         <v>0</v>
@@ -1704,78 +1846,291 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="K16" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="K17" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="K18" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="K19" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="K20" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="K21" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="K14" s="18" t="b">
-        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="7"/>
+      <c r="K22" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="K23" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="K24" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="K25" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="K26" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="K27" s="10" t="b">
+        <f>IF(SUM(CableList[[#This Row],[Generado]:[Entregado a calidad]])=6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
